--- a/data/hotels_by_city/Houston/Houston_shard_176.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_176.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="507">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56427-d223648-Reviews-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
   </si>
   <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Fairfield-Inn-Suites-By-Marriott-Houston-Pasadena.h12521922.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1395 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r568678666-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>56427</t>
+  </si>
+  <si>
+    <t>223648</t>
+  </si>
+  <si>
+    <t>568678666</t>
+  </si>
+  <si>
+    <t>03/25/2018</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r564620888-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>564620888</t>
+  </si>
+  <si>
+    <t>03/05/2018</t>
+  </si>
+  <si>
+    <t>I would not stay here again.</t>
+  </si>
+  <si>
+    <t>Overall, the place was grungy. The room was not filthy, but it also did not feel as clean as I want a hotel to feel - soap scum on the shelf in the shower, piece of tile baseboard loose and encrusted with glue to put it back on, child's marker art drawing on wall. The beds were very comfortable, but the sheets are not large enough to fit the super deep mattresses and come off of the corners. Definitely not worth the more than $90 we were charged for the room. The breakfast was a choice of the regular cold stuff, make yourself a waffle option or overly salted soupy oatmeal. The staff was friendly. There were some room issues before we finally got into a room that we could stay in (no bedding on mattresses) and they dealt with it promptly and  with a smile.MoreShow less</t>
+  </si>
+  <si>
+    <t>Overall, the place was grungy. The room was not filthy, but it also did not feel as clean as I want a hotel to feel - soap scum on the shelf in the shower, piece of tile baseboard loose and encrusted with glue to put it back on, child's marker art drawing on wall. The beds were very comfortable, but the sheets are not large enough to fit the super deep mattresses and come off of the corners. Definitely not worth the more than $90 we were charged for the room. The breakfast was a choice of the regular cold stuff, make yourself a waffle option or overly salted soupy oatmeal. The staff was friendly. There were some room issues before we finally got into a room that we could stay in (no bedding on mattresses) and they dealt with it promptly and  with a smile.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r556924714-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>556924714</t>
+  </si>
+  <si>
+    <t>01/28/2018</t>
+  </si>
+  <si>
+    <t>..its was good but dryer broken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Its was pretty good... Just the towels I wasn't able to get clean towels or any today they said the dryer was broken n the next day same issue.. The lady told me I can go down stairs n get some. </t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r545091262-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>545091262</t>
+  </si>
+  <si>
+    <t>12/04/2017</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r543476628-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>543476628</t>
+  </si>
+  <si>
+    <t>11/26/2017</t>
+  </si>
+  <si>
+    <t>Disgusting</t>
+  </si>
+  <si>
+    <t>This place was in horrible shape! The elevator was filthy and the floors were sticky and mirrors were all stained. The carpets were being pulled out and were stacked in the hallways and smelled horrible. Went into my room and the floor board carpet lining was unglued and off the wall, it was just laying in the floor, the bed fitted sheets popped off when I pulled the sheet off and to my absolute dismay it uncovered a urine and god only knows what other bodily fluid stains were ALL OVER THE ENTIRE MATTRESS COVER! The door to the room would not lock and you could easily shove the door open without a room key. The grout in the bathroom floor was gone and it was just loose tiles, there was also a hole in the bathroom wall that who knows how it got there, what made it or who might have been looking through it. I would never recommend this place to anyone. For your own safety, STAY AWAY! The place is an absolute dump!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>This place was in horrible shape! The elevator was filthy and the floors were sticky and mirrors were all stained. The carpets were being pulled out and were stacked in the hallways and smelled horrible. Went into my room and the floor board carpet lining was unglued and off the wall, it was just laying in the floor, the bed fitted sheets popped off when I pulled the sheet off and to my absolute dismay it uncovered a urine and god only knows what other bodily fluid stains were ALL OVER THE ENTIRE MATTRESS COVER! The door to the room would not lock and you could easily shove the door open without a room key. The grout in the bathroom floor was gone and it was just loose tiles, there was also a hole in the bathroom wall that who knows how it got there, what made it or who might have been looking through it. I would never recommend this place to anyone. For your own safety, STAY AWAY! The place is an absolute dump!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r518069111-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>518069111</t>
+  </si>
+  <si>
+    <t>08/27/2017</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r509111728-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>509111728</t>
+  </si>
+  <si>
+    <t>08/05/2017</t>
+  </si>
+  <si>
+    <t>Great stay!  Clean.  Great employees.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This was my 5th time staying at this hotel., after trying other hotels in the area, this one is the only one I will return to.  The staff was awesome,  no bugs anywhere, room was clean, bed comfy,  pool was very nice.  Only thing I would change is the variety of breakfast items,  and the variety of the snack machines.  </t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r505618188-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>505618188</t>
+  </si>
+  <si>
+    <t>07/25/2017</t>
+  </si>
+  <si>
+    <t>Days Inn Pasadena, Tx</t>
+  </si>
+  <si>
+    <t>Nice, clean Hotel to come to after a hard days work at the Ship Channel. High Speed internet, nice and clean pool and onsite laundry facility among the amenities found here. MoreShow less</t>
+  </si>
+  <si>
+    <t>Kamlesh M, General Manager at Days Inn &amp; Suites by Wyndham Pasadena, responded to this reviewResponded July 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 27, 2017</t>
+  </si>
+  <si>
+    <t>Nice, clean Hotel to come to after a hard days work at the Ship Channel. High Speed internet, nice and clean pool and onsite laundry facility among the amenities found here. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r504048375-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>504048375</t>
+  </si>
+  <si>
+    <t>07/20/2017</t>
+  </si>
+  <si>
+    <t>Friendly and comfortable</t>
+  </si>
+  <si>
+    <t>My stay and this location fairly comfortable. The room was large, the air conditioner worked well for the Texas summer day, check in was efficient and friendly, and the bed was large and comfortable. The hallways could use a good vacuuming, but overall everything was in decent shape. Not fancy or but and new, but well kept, and a good value and comfortable place to stay for the price. As a female traveling alone, I never felt unsafe. The wifi was less than stellar.  I would have liked some kind of meat or eggs or other low carb protein for breakfast, but overall it was a fair selection. I would stay at this location again. MoreShow less</t>
+  </si>
+  <si>
+    <t>My stay and this location fairly comfortable. The room was large, the air conditioner worked well for the Texas summer day, check in was efficient and friendly, and the bed was large and comfortable. The hallways could use a good vacuuming, but overall everything was in decent shape. Not fancy or but and new, but well kept, and a good value and comfortable place to stay for the price. As a female traveling alone, I never felt unsafe. The wifi was less than stellar.  I would have liked some kind of meat or eggs or other low carb protein for breakfast, but overall it was a fair selection. I would stay at this location again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r485504617-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>485504617</t>
+  </si>
+  <si>
+    <t>05/18/2017</t>
+  </si>
+  <si>
+    <t>Funeral, Family and Friends</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I booked this Hotel online. When I checked in the nice Lady at the desk identified me as a Wyndham rewards member and upgraded me to a suite. Very clean and friendly hotel. They had Angel Soft toilet paper which was nice. Close to airport and restaurants. </t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r483322651-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>483322651</t>
+  </si>
+  <si>
+    <t>05/10/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We got a jacuzzi room loved it. The room was nice and clean. Smelled nice. The pool was good hot tub works  it changes colors at night which my daughter really enjoyed. Parking was a little crazy but other than that really nice  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r479867564-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>479867564</t>
+  </si>
+  <si>
+    <t>04/28/2017</t>
+  </si>
+  <si>
+    <t>Needs help</t>
+  </si>
+  <si>
+    <t>I won't stay here again. It was a little far from the beltway, and it needs a thorough cleaning and bathroom renovation. Showered only because the tub was really bad.</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r467282179-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>467282179</t>
+  </si>
+  <si>
+    <t>03/14/2017</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r466818451-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>466818451</t>
+  </si>
+  <si>
+    <t>03/13/2017</t>
+  </si>
+  <si>
+    <t>Excellent!!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This hotel was better than expected. It was within minutes of places we needed to go. Beds were extremely soft with fluffy pillows. I couldn't have asked for anything better out of the room. The only slight down fall was I wish they would of had a little more of a selection of breads for the continental breakfast maybe like muffins or even bagels it was only toast. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r465319327-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>465319327</t>
+  </si>
+  <si>
+    <t>03/07/2017</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r460695944-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>460695944</t>
+  </si>
+  <si>
+    <t>02/17/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r454401410-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>454401410</t>
+  </si>
+  <si>
+    <t>01/23/2017</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r452501289-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>452501289</t>
+  </si>
+  <si>
+    <t>01/16/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r427444389-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>427444389</t>
+  </si>
+  <si>
+    <t>10/12/2016</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r422922850-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>422922850</t>
+  </si>
+  <si>
+    <t>09/27/2016</t>
+  </si>
+  <si>
+    <t>Great weekend</t>
+  </si>
+  <si>
+    <t>I got a smoking room with a jacuzzi and was pleasantly surprised to find that it barely even smelled like smoke in comparison to what I am used to with smoking rooms. The jacuzzi was PERFECT, the room was clean and neat, and it was overall a great stay. Definitely will be back!</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r416297879-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>416297879</t>
+  </si>
+  <si>
+    <t>09/08/2016</t>
+  </si>
+  <si>
+    <t>Good basic hotel in a convenient location.</t>
+  </si>
+  <si>
+    <t>Good basic room. Room was clean. It had a fridge &amp; microwave oven. Also had a sofa. The bed was nice and firm with good pillows. Reasonably priced. Bathtub had non-slip bottom and a grab bar, to make it more stable getting in and out of the tub. My husband and I appreciated that. There was about a quarter of an inch of clearance between the bathroom door and the toilet, so that was pretty close. Room seemed to be well soundproofed. I did not hear any loud noises from other tenants. Parking is ample and they do have a porte-cochere (carriage porch) to park under when you check in.  My only complaint about breakfast is that they did not have hard boiled eggs, cartons of milk, or scrambled eggs, for protein.  Milk was in a pitcher to be poured on your oatmeal or cold cereal.  Most people need some protein in their breakfast so they won't get hungry quickly.  I can't make it on fat and carbs only.  Desk clerk was polite and friendly.  Would stay there again. It's on Spencer Highway so it's very convenient. Spencer is a major street with many businesses. It is not too far from Interstate 45 South (the Gulf Freeway) if you need to go south to Galveston or north through Houston. Checkout is at 11 instead of 12 like most hotels I have stayed in.MoreShow less</t>
+  </si>
+  <si>
+    <t>Good basic room. Room was clean. It had a fridge &amp; microwave oven. Also had a sofa. The bed was nice and firm with good pillows. Reasonably priced. Bathtub had non-slip bottom and a grab bar, to make it more stable getting in and out of the tub. My husband and I appreciated that. There was about a quarter of an inch of clearance between the bathroom door and the toilet, so that was pretty close. Room seemed to be well soundproofed. I did not hear any loud noises from other tenants. Parking is ample and they do have a porte-cochere (carriage porch) to park under when you check in.  My only complaint about breakfast is that they did not have hard boiled eggs, cartons of milk, or scrambled eggs, for protein.  Milk was in a pitcher to be poured on your oatmeal or cold cereal.  Most people need some protein in their breakfast so they won't get hungry quickly.  I can't make it on fat and carbs only.  Desk clerk was polite and friendly.  Would stay there again. It's on Spencer Highway so it's very convenient. Spencer is a major street with many businesses. It is not too far from Interstate 45 South (the Gulf Freeway) if you need to go south to Galveston or north through Houston. Checkout is at 11 instead of 12 like most hotels I have stayed in.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r397700593-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>397700593</t>
+  </si>
+  <si>
+    <t>07/26/2016</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r396964556-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>396964556</t>
+  </si>
+  <si>
+    <t>07/25/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r389871032-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>389871032</t>
+  </si>
+  <si>
+    <t>07/06/2016</t>
+  </si>
+  <si>
+    <t>Rude staff and dirty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There was mold on the bathtubs and around the walls. The couch and curtains had stains on them. Not much of a breakfast variety was given. Orange juice machine was just coming out as orange tinted water and nothing was done about it. The staff was rude when I asked for towels and shampoo. We slept comfortably after a long travel, but we wouldn't recommend the hotel. Better hotels can be found for the same price. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r363381274-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>363381274</t>
+  </si>
+  <si>
+    <t>04/11/2016</t>
+  </si>
+  <si>
+    <t>Always friendly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I stay at this hotel every time i am in the area. This time i was just passing through and was coming down with a sinus infection so i ended up staying there an extra night to recuperate. As horrible as my condition was, the stay was pleasant as always and were never bothered by personnel. The hotel manager is always ready to make your stay a pleasant one. </t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r362345421-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>362345421</t>
+  </si>
+  <si>
+    <t>04/07/2016</t>
+  </si>
+  <si>
+    <t>Great Place to stay</t>
+  </si>
+  <si>
+    <t>I've stayed here before and am not disappointed when I come back back. This hotel is clean with a very friendly and helpful staff. It's close to Hobby airport but far enough away to avoid airport prices. I highly recommend this hotel.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r360986252-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>360986252</t>
+  </si>
+  <si>
+    <t>04/02/2016</t>
+  </si>
+  <si>
+    <t>Adequate</t>
+  </si>
+  <si>
+    <t>Like most Days Inn hotels I've stayed at, this place has the same high quality and standards.  For the amount you pay the value is great.  Whenever I'm in a new area Days Inn is usually my "go-to" hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r356302717-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>356302717</t>
+  </si>
+  <si>
+    <t>03/17/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice stay </t>
+  </si>
+  <si>
+    <t>My husband and I always stay here when we are in Pasadena working. The hotel is very clean and all of the staff is very polite and very helpful. They have a good continental breakfast of waffles, oatmeal, cereal, yogurt, etc.  The exercise room is nice too.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r350676024-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>350676024</t>
+  </si>
+  <si>
+    <t>02/24/2016</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r348678456-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>348678456</t>
+  </si>
+  <si>
+    <t>02/17/2016</t>
+  </si>
+  <si>
+    <t>Really Nice!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I stayed here while working nearby and was impressed with how clean and spacious the room was. The bed was comfy and the shower worked great. I'll definitely stay here again if I'm back in the area. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r341270829-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>341270829</t>
+  </si>
+  <si>
+    <t>01/19/2016</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r336968490-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>336968490</t>
+  </si>
+  <si>
+    <t>01/03/2016</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r331812334-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>331812334</t>
+  </si>
+  <si>
+    <t>12/10/2015</t>
+  </si>
+  <si>
+    <t>Here for husband's maritime class at San Jac</t>
+  </si>
+  <si>
+    <t>Fabulous 4 nite stay, better than some of the 4 star hotels we've stayed in!! Very clean, updated, wonderful, friendly and accommodating staff.  Nice breakfast, conveniently located.  We will definitely be back!! Great stay beautiful pool area with nice waterfall, nice meeting rooms, business center and free wifi, all for a very affordable price, you really wont be sorry with a stay here. Thank you Days Inn and Suites Pasadena!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r330899308-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>330899308</t>
+  </si>
+  <si>
+    <t>12/05/2015</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r330331811-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>330331811</t>
+  </si>
+  <si>
+    <t>12/02/2015</t>
+  </si>
+  <si>
+    <t>Good stay for the money</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Staff was excellent.  My room did not look like the picture.  It was actually more upgraded than the picture showed.  You can tell the hotel is a little old but they are making updates.  I would stay again.  Don't expect much from the breakfast.  They did have a waffle iron, some apples, bread for toast, and oatmeal.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r327806683-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>327806683</t>
+  </si>
+  <si>
+    <t>11/19/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r320495324-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>320495324</t>
+  </si>
+  <si>
+    <t>10/20/2015</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r318231271-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>318231271</t>
+  </si>
+  <si>
+    <t>10/13/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Days inn in.pasadena houston </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was scared on my way over here hoping It wasnt a bad hotel when we got here at 2 am it actially impresse me clean neat quiet d clerk was kind of rude but ended up goving me wat we want non smoking room next to each other we had a wonderful 3 day trip  n loved my hotel   </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r309669758-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>309669758</t>
+  </si>
+  <si>
+    <t>09/12/2015</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r305508675-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>305508675</t>
+  </si>
+  <si>
+    <t>08/31/2015</t>
+  </si>
+  <si>
+    <t>Smoke and mirrors! ZERO guest services</t>
+  </si>
+  <si>
+    <t>Booked this hotel for 2 rooms for 4 nights. They wanted an extra $40/night to change one room PRE-CHECK IN from a king to a 2 double beds. Who does this? Needless to say 2 guys had to share a king, when they had 2 double beds available. NOT awesome.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r303794598-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>303794598</t>
+  </si>
+  <si>
+    <t>08/26/2015</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was here for my graduation and everything went well. I didn't expect much and was very surprised by how nice the hotel was and the staff. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r302891771-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>302891771</t>
+  </si>
+  <si>
+    <t>08/24/2015</t>
+  </si>
+  <si>
+    <t>good place for the price paid</t>
+  </si>
+  <si>
+    <t>Its a small facility, well located for the area very accessible.  The owner wants to upgrade the inside which will make the place more interesting.  Overall amenities, location and personal are ok.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r293163742-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>293163742</t>
+  </si>
+  <si>
+    <t>07/27/2015</t>
+  </si>
+  <si>
+    <t>Bug Bites</t>
+  </si>
+  <si>
+    <t>My husband and I spent only one night at the hotel, everything was fine until I woke up the next morning to leave the hotel. Thank goodness I had Benadryl with me, as on my arm, behind one of my legs and on the side of another leg it looked like I had big mosquito bites, that was 4 days ago, and I still have these bites. My husband was not bitten by anything and we saw no mosquitos in our room the night before. Whatever bit me was already the bed.Other than that experience, everything else was fine.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r292041666-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>292041666</t>
+  </si>
+  <si>
+    <t>07/24/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Old but good and great prices </t>
+  </si>
+  <si>
+    <t>We stayed here for five nights. The price was good. The hotel seems to be pretty old but it doesn't look bad. the rooms were spacious ours had two sinks, two double beds, a couch bed the couch bed smelled like pee so we stayed off of it. A flat screen TV with direct tv, a table with two chairs, the beds were comfy the air worked good. The hotel was quiet no problems. The parking lot is lit up good. There is a pool and a hot tub although their nt that big the kids and I still enjoyed them when we had them to ourselves. There are also plenty of places to eat on Spencer highway. I would stay here againMoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here for five nights. The price was good. The hotel seems to be pretty old but it doesn't look bad. the rooms were spacious ours had two sinks, two double beds, a couch bed the couch bed smelled like pee so we stayed off of it. A flat screen TV with direct tv, a table with two chairs, the beds were comfy the air worked good. The hotel was quiet no problems. The parking lot is lit up good. There is a pool and a hot tub although their nt that big the kids and I still enjoyed them when we had them to ourselves. There are also plenty of places to eat on Spencer highway. I would stay here againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r289669974-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>289669974</t>
+  </si>
+  <si>
+    <t>07/16/2015</t>
+  </si>
+  <si>
+    <t>Worst experience ever</t>
+  </si>
+  <si>
+    <t>I didn't like the days inn in Pasadena, Texas on Spencer Rd. The first problem I had when I checked in was my room door wouldn't close and lock so I had to go back to the front desk and switch rooms. So after that I get in the second room and had to lift up on the door for it to close properly and there was no safety lock on the inside of the door. Just my luck someone else was giving the same room I was in so in the process of kids running and playing in the hallway at 2a.m. A family opens the door to my room and starts to walk in while there looking at me saying their key said 208 which was the room I was in. So with all that going on I get up to take a shower after finally dosing off because I didn't know what was gonna happen next I cou get the hot water to get hot to save my life and had to take a cold shower SMH. and to sum it all up I lost 15,000 Wyndham rewards points and was not comfortable at all and don't feel the same about Wyndham hotels anymore. MoreShow less</t>
+  </si>
+  <si>
+    <t>I didn't like the days inn in Pasadena, Texas on Spencer Rd. The first problem I had when I checked in was my room door wouldn't close and lock so I had to go back to the front desk and switch rooms. So after that I get in the second room and had to lift up on the door for it to close properly and there was no safety lock on the inside of the door. Just my luck someone else was giving the same room I was in so in the process of kids running and playing in the hallway at 2a.m. A family opens the door to my room and starts to walk in while there looking at me saying their key said 208 which was the room I was in. So with all that going on I get up to take a shower after finally dosing off because I didn't know what was gonna happen next I cou get the hot water to get hot to save my life and had to take a cold shower SMH. and to sum it all up I lost 15,000 Wyndham rewards points and was not comfortable at all and don't feel the same about Wyndham hotels anymore. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r284086951-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>284086951</t>
+  </si>
+  <si>
+    <t>06/29/2015</t>
+  </si>
+  <si>
+    <t>After checkout</t>
+  </si>
+  <si>
+    <t>The hotel staff was very nice and the location was ideal for me and my handicapped friend's fishing getaway. We stayed at the Hotel for two days and on the second night my friend began struggling. He is paralyzed from the waist down and has had several surgeries one to include placing a device in his stomach to pump meds to his legs to control spasms. Like I previously mentioned on the second night there he wasn't feeling well and his temperature began fluctuating from cold chills to feeling overheated. He eventually was able to get to sleep but in the morning had advised me he had an accident. Upon checking out I had taken him back home and continued heading an hour north and got a call from presumably the Hotel's owner. Who asked me if I was aware that the sheets on one of the beds were soiled. I replied, "i didn't know the extent of what happen but my handicapped friend had mentioned to me earlier that morning once I had gotten up that he'd had an accident and needed to clean up. I told him okay and got up, brushed my teeth and left the room so he could have some privacy. The owner/manager who called me stated that I'd be charged an additional 100.00 for the replacement of the set of sheets on his bed. So essentially for two nights, I was charged a total... The hotel staff was very nice and the location was ideal for me and my handicapped friend's fishing getaway. We stayed at the Hotel for two days and on the second night my friend began struggling. He is paralyzed from the waist down and has had several surgeries one to include placing a device in his stomach to pump meds to his legs to control spasms. Like I previously mentioned on the second night there he wasn't feeling well and his temperature began fluctuating from cold chills to feeling overheated. He eventually was able to get to sleep but in the morning had advised me he had an accident. Upon checking out I had taken him back home and continued heading an hour north and got a call from presumably the Hotel's owner. Who asked me if I was aware that the sheets on one of the beds were soiled. I replied, "i didn't know the extent of what happen but my handicapped friend had mentioned to me earlier that morning once I had gotten up that he'd had an accident and needed to clean up. I told him okay and got up, brushed my teeth and left the room so he could have some privacy. The owner/manager who called me stated that I'd be charged an additional 100.00 for the replacement of the set of sheets on his bed. So essentially for two nights, I was charged a total of 287.18 on my credit card  for a room with two queen beds.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>The hotel staff was very nice and the location was ideal for me and my handicapped friend's fishing getaway. We stayed at the Hotel for two days and on the second night my friend began struggling. He is paralyzed from the waist down and has had several surgeries one to include placing a device in his stomach to pump meds to his legs to control spasms. Like I previously mentioned on the second night there he wasn't feeling well and his temperature began fluctuating from cold chills to feeling overheated. He eventually was able to get to sleep but in the morning had advised me he had an accident. Upon checking out I had taken him back home and continued heading an hour north and got a call from presumably the Hotel's owner. Who asked me if I was aware that the sheets on one of the beds were soiled. I replied, "i didn't know the extent of what happen but my handicapped friend had mentioned to me earlier that morning once I had gotten up that he'd had an accident and needed to clean up. I told him okay and got up, brushed my teeth and left the room so he could have some privacy. The owner/manager who called me stated that I'd be charged an additional 100.00 for the replacement of the set of sheets on his bed. So essentially for two nights, I was charged a total... The hotel staff was very nice and the location was ideal for me and my handicapped friend's fishing getaway. We stayed at the Hotel for two days and on the second night my friend began struggling. He is paralyzed from the waist down and has had several surgeries one to include placing a device in his stomach to pump meds to his legs to control spasms. Like I previously mentioned on the second night there he wasn't feeling well and his temperature began fluctuating from cold chills to feeling overheated. He eventually was able to get to sleep but in the morning had advised me he had an accident. Upon checking out I had taken him back home and continued heading an hour north and got a call from presumably the Hotel's owner. Who asked me if I was aware that the sheets on one of the beds were soiled. I replied, "i didn't know the extent of what happen but my handicapped friend had mentioned to me earlier that morning once I had gotten up that he'd had an accident and needed to clean up. I told him okay and got up, brushed my teeth and left the room so he could have some privacy. The owner/manager who called me stated that I'd be charged an additional 100.00 for the replacement of the set of sheets on his bed. So essentially for two nights, I was charged a total of 287.18 on my credit card  for a room with two queen beds.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r283487994-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>283487994</t>
+  </si>
+  <si>
+    <t>06/27/2015</t>
+  </si>
+  <si>
+    <t>Hotel very clean. Staff courteous and polite.  The guest computer did not work for printing and the network very slow, however the manager had me use the pc behind the front desk for a quick print of a needed state document.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r279951480-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>279951480</t>
+  </si>
+  <si>
+    <t>06/13/2015</t>
+  </si>
+  <si>
+    <t>Nice Trip--comfortable bed</t>
+  </si>
+  <si>
+    <t>Spent the night for business; clerk was very nice; she noticed I was tired and made coffee for me.  I really appreciated her friendliness!  Room was nice and comfortable.  The only downside was the manager/owner (a lady who I assume was of Indian/Middle Eastern descent) not very nice.  I asked for a late checkout and she acted like I was offending her.  Overall nice trip, though, particularly because of the clerk who went out of her way to take care of a weary traveler!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r274836142-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>274836142</t>
+  </si>
+  <si>
+    <t>05/26/2015</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r268714346-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>268714346</t>
+  </si>
+  <si>
+    <t>04/28/2015</t>
+  </si>
+  <si>
+    <t>We arrived very early...we were allowed to check in anyway...</t>
+  </si>
+  <si>
+    <t>We arrived very early...we were allowed to check in anyway, and they offered to let us enjoy breakfast that day as well.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r266705259-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>266705259</t>
+  </si>
+  <si>
+    <t>04/19/2015</t>
+  </si>
+  <si>
+    <t>Excuses excuses</t>
+  </si>
+  <si>
+    <t>First off the place smells funny, like stale cigarrette smoke? Brought the car air freshener in and ok the room didnt smell so bad. Wi-fi is horrible.First day the pool wasnt open. The second day no pool again. We asked the lady at the desk and she says they are waiting for permits becuase they changed the chemicals in the pool? HUH did I hear that right. So we are here on vacation with No pool.So I ask her if we could check out and go somewhere else and she says sure but you have to pay full price.So now you want me to pay more when I am getting less? In my first trip to this area I stayed at the Comfort Inn in Deer Park, a little pricier but you get what you pay for. I would recommend going there or somewhere else. This place is lousy.MoreShow less</t>
+  </si>
+  <si>
+    <t>First off the place smells funny, like stale cigarrette smoke? Brought the car air freshener in and ok the room didnt smell so bad. Wi-fi is horrible.First day the pool wasnt open. The second day no pool again. We asked the lady at the desk and she says they are waiting for permits becuase they changed the chemicals in the pool? HUH did I hear that right. So we are here on vacation with No pool.So I ask her if we could check out and go somewhere else and she says sure but you have to pay full price.So now you want me to pay more when I am getting less? In my first trip to this area I stayed at the Comfort Inn in Deer Park, a little pricier but you get what you pay for. I would recommend going there or somewhere else. This place is lousy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r262353792-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>262353792</t>
+  </si>
+  <si>
+    <t>03/28/2015</t>
+  </si>
+  <si>
+    <t>Freindly Staff and the Bed is Comfortable</t>
+  </si>
+  <si>
+    <t>This is a well cared for hotel with a comfortable bed.  The staff is friendly and we felt comfortable and safe there.As for the breakfast they did have waffles and the usual choices,The hotel is clean and feels fresh.  Great staff and you should stay here.</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r261533838-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>261533838</t>
+  </si>
+  <si>
+    <t>03/24/2015</t>
+  </si>
+  <si>
+    <t>I found a cockroach in the restroom by the toilet. I call...</t>
+  </si>
+  <si>
+    <t>I found a cockroach in the restroom by the toilet. I call the front desk and told the person in charge. I guess he didn't believe me and all he did was apologize for it.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r260892601-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>260892601</t>
+  </si>
+  <si>
+    <t>03/21/2015</t>
+  </si>
+  <si>
+    <t>employees need motivation</t>
+  </si>
+  <si>
+    <t>bathroom sink verySLOW, carpet and tile no transition strip ,concrete sh.owing dangerious, then breakfast cold cereal ,a few apples and stale bread. ask desk they were not concerned ??</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r259847961-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>259847961</t>
+  </si>
+  <si>
+    <t>03/16/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r257459992-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>257459992</t>
+  </si>
+  <si>
+    <t>03/03/2015</t>
+  </si>
+  <si>
+    <t>Convenient to Hobby Airport</t>
+  </si>
+  <si>
+    <t>It doesn't look like a very good area but the hotel is well lit and very comfortable. Security did not seem to be an issue even though key access was required and the only entry after 9pm was through the lobby The front desk staff is accommodating and friendly. I was able to use the business center and print documents I needed at no charge. The price is very competitive.</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r256429833-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>256429833</t>
+  </si>
+  <si>
+    <t>02/25/2015</t>
+  </si>
+  <si>
+    <t>Good value, accomodating staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr.Kam, the manager was very helpful.  He was able to check us in early so that we could go sight  seeing in Galveston for the rest of the day and not worry about the luggage sitting in the car.He also stored our luggage after we checked out so that we could go to theSpace Centre without having our luggage in the car.The breakfast (included) consisted of fruit, yogurt , cereal, hot and cold and make your own fresh waffles. We would recommend a stay at the Spencer St. Day's Inn for good value and proximity to sightseeing, </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r252944724-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>252944724</t>
+  </si>
+  <si>
+    <t>02/06/2015</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r249861689-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>249861689</t>
+  </si>
+  <si>
+    <t>01/18/2015</t>
+  </si>
+  <si>
+    <t>Great  place friendly  staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great place to stay while in the Pasadena  area. Nice ,spacious  and clean rooms. Manager and all staff friendly and willing to make your stay as comfortable as possible while you are away from home. I will definitely stay here when I return to the Pasadena area. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r244597621-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>244597621</t>
+  </si>
+  <si>
+    <t>12/15/2014</t>
+  </si>
+  <si>
+    <t>Gross</t>
+  </si>
+  <si>
+    <t>Days inn on Spencer Hwy. was the most dirtiest , smelly motel that I have ever stayed in . The roomed had the weirdest smell . The walls were dirty. The doors and door handles were dirty  , on bathroom door there was either blood or makeup on it. Disgusting! The ceilings had mold on it . Gross and this was yet the nastiest  NaTs everywhere in my room . Gross ! Overall this room was very disgusting . The chairs in the room that you could sit on , I wouldn't even place my bag on . Those chairs were the most dirtiest things ever .i even told my son not to sit on them. MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>Days inn on Spencer Hwy. was the most dirtiest , smelly motel that I have ever stayed in . The roomed had the weirdest smell . The walls were dirty. The doors and door handles were dirty  , on bathroom door there was either blood or makeup on it. Disgusting! The ceilings had mold on it . Gross and this was yet the nastiest  NaTs everywhere in my room . Gross ! Overall this room was very disgusting . The chairs in the room that you could sit on , I wouldn't even place my bag on . Those chairs were the most dirtiest things ever .i even told my son not to sit on them. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r223030871-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>223030871</t>
+  </si>
+  <si>
+    <t>08/19/2014</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Kam M, Manager at Days Inn &amp; Suites by Wyndham Pasadena, responded to this reviewResponded September 5, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 5, 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r220547197-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>220547197</t>
+  </si>
+  <si>
+    <t>08/08/2014</t>
+  </si>
+  <si>
+    <t>An absolute Jewel of a place. Highly recommended.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This hotel is very nice. I was impressed by the cleanliness most of all. The  hotel manager was always available for any requests,  and ALWAYS greets with a smile. He takes customer service very seriously. I work nights, and I wasn't woken up once during the day while I slept. Overall the price was fantastic,  and I would recommend this hotel to anyone. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r217604698-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>217604698</t>
+  </si>
+  <si>
+    <t>07/26/2014</t>
+  </si>
+  <si>
+    <t>Great Stay ... Always</t>
+  </si>
+  <si>
+    <t>I stay at Days inn every time i travel. The hotel is clean, the staff is friendly and always willing to help</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r215958062-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>215958062</t>
+  </si>
+  <si>
+    <t>07/17/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r214206029-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>214206029</t>
+  </si>
+  <si>
+    <t>07/07/2014</t>
+  </si>
+  <si>
+    <t>Disappointment!</t>
+  </si>
+  <si>
+    <t>I stayed there for three nights and was dismayed to see that the 2nd lock on the door had been ripped out.  I also noticed that the smoke alarm had been ripped out.  I don't think it would pass a safety inspection.  My sister stayed in the same motel and her husband woke up to ants biting him.  They were all over the bed.  The 2nd night yielded the same thing.  The hotel manager refused to speak to my sister over this and they were told that if they didn't like it, they could leave.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed there for three nights and was dismayed to see that the 2nd lock on the door had been ripped out.  I also noticed that the smoke alarm had been ripped out.  I don't think it would pass a safety inspection.  My sister stayed in the same motel and her husband woke up to ants biting him.  They were all over the bed.  The 2nd night yielded the same thing.  The hotel manager refused to speak to my sister over this and they were told that if they didn't like it, they could leave.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r213974288-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>213974288</t>
+  </si>
+  <si>
+    <t>07/06/2014</t>
+  </si>
+  <si>
+    <t>Horrible manger do not give them your business!</t>
+  </si>
+  <si>
+    <t>Reserved room here and after reviewing how ugly and dirty it is in this hotel I canceled my reservation a month in advance! After a month pass by I still get charged the hotel and call the manger to confirm that we cancel a month in advance. He was rude and obnoxious and told us this was our fault that the front desk never gave us a cancelation email which we never were told to receive one. There commit fraud and deceit to take your money!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r204889585-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>204889585</t>
+  </si>
+  <si>
+    <t>05/09/2014</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r203667272-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>203667272</t>
+  </si>
+  <si>
+    <t>05/01/2014</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r203400584-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>203400584</t>
+  </si>
+  <si>
+    <t>04/29/2014</t>
+  </si>
+  <si>
+    <t>drag race weekend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean spacious room for good dollar value.  A variety of eateries near by. inroom desk, sofa, and microwave with refrigerator all make for a pleasant stay. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r199393852-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>199393852</t>
+  </si>
+  <si>
+    <t>03/31/2014</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r199191133-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>199191133</t>
+  </si>
+  <si>
+    <t>03/29/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r196229892-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>196229892</t>
+  </si>
+  <si>
+    <t>03/04/2014</t>
+  </si>
+  <si>
+    <t>Family Visit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Never having stayed at a Day's End Hotel, my family was pleasantly surprised at the comfort and cleanliness with their Hotel in Pasadena TX.The staff was very helpful and eager to help us with our needs.We enjoyed a good 3 night stay here and would go back and stay there again while in that area of Texas. </t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r188469012-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>188469012</t>
+  </si>
+  <si>
+    <t>12/24/2013</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r188437239-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>188437239</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r188392301-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>188392301</t>
+  </si>
+  <si>
+    <t>12/23/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r181200188-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>181200188</t>
+  </si>
+  <si>
+    <t>10/15/2013</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r175547151-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>175547151</t>
+  </si>
+  <si>
+    <t>09/03/2013</t>
+  </si>
+  <si>
+    <t>Diamond in the Rough</t>
+  </si>
+  <si>
+    <t>We have stayed here many times in the last three years.  It is our go to place whenever we visit my husband's family.  The last time it was just my daughter and I.  We had come to town for the George Strait concert at the Rodeo.  As always, management was very friendly and helpful.  Room was very clean and comfortable.</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r172135252-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>172135252</t>
+  </si>
+  <si>
+    <t>08/13/2013</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r168927623-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>168927623</t>
+  </si>
+  <si>
+    <t>07/24/2013</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r168767224-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>168767224</t>
+  </si>
+  <si>
+    <t>07/23/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r168621049-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>168621049</t>
+  </si>
+  <si>
+    <t>07/22/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r161787357-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>161787357</t>
+  </si>
+  <si>
+    <t>05/25/2013</t>
+  </si>
+  <si>
+    <t>Would stay again</t>
+  </si>
+  <si>
+    <t>I decided to stay here on a recent trip to Houston rather than staying right in the city. I'm glad I did. Nice, clean rooms and a very reasonable rate. It is conveniently located and no more than an hour away from anything in Houston. The free breakfast was the usual for a Days Inn, with fruit, cereal, bagels, muffins, etc. The breakfast area was very nice, just inside the building by the pool. I don't know if I will be going back to that area anytime soon, but if I do I will definately be staying here again.</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r159478394-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>159478394</t>
+  </si>
+  <si>
+    <t>05/02/2013</t>
+  </si>
+  <si>
+    <t>What a find!!!!</t>
+  </si>
+  <si>
+    <t>This place is a wonderful place and a teriffic value! I stayed here last month and when called back to do business in Baytown which is nearby, where I was going to stay was a no-brainer! Kam and the staff were excellent. The breakfast was good, the rooms big and clean and it was at a very affordable price. If on a budget but you want a nice place to stay, this is it!!!! You cant go wrong.</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r157109960-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>157109960</t>
+  </si>
+  <si>
+    <t>04/08/2013</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>Excellent service, Kam was great in providing service quickly and professional. Will diffiently stay there again when I return .</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r153514997-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>153514997</t>
+  </si>
+  <si>
+    <t>03/02/2013</t>
+  </si>
+  <si>
+    <t>Good value...</t>
+  </si>
+  <si>
+    <t>I got a good deal for what I paid.  The beds were comfortable and the room was reasonably clean.  During my stay, the staff was very courteous and efficient.  The breakfast could have offered a little more, but as I said, I got a good deal for what I paid.  The only real downside is the location.  The hotel is on Spencer Hwy and sits right off of the street.  Late at night, I'd swear there was a NASCAR event going on outside the hotel with revving engines and squealing tires.  Otherwise, I'd stay here again if ever in the Pasadena area.</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r145414781-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>145414781</t>
+  </si>
+  <si>
+    <t>11/14/2012</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r142030890-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>142030890</t>
+  </si>
+  <si>
+    <t>10/04/2012</t>
+  </si>
+  <si>
+    <t>bad credit card problems</t>
+  </si>
+  <si>
+    <t>Most of the ppl there were nice, but the manager has a problem with charging credit cards after guest are gone I do not recommend this hotel to any one... when you are living on a budget and 199.99 is taken out of your account it truly sucks!</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r115577577-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>115577577</t>
+  </si>
+  <si>
+    <t>07/20/2011</t>
+  </si>
+  <si>
+    <t>Awesome</t>
+  </si>
+  <si>
+    <t>FRom the previous reviews I was a little vary of staying here, but i have to tell you those fears were totally unfounded. When i checked in the hotel was super clean and fresh. The ac in my room was already turned on with complimentary waters and cookies. My room was so big and super clean, I inspected. I always appreciate the white bedding makes it feel cleaner to. Free internet came in handy. Overall I had a great stay and will be returning anytime i am in the area.</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r110011685-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>110011685</t>
+  </si>
+  <si>
+    <t>05/26/2011</t>
+  </si>
+  <si>
+    <t>Horrendous. Stay in Houston!</t>
+  </si>
+  <si>
+    <t>Traveled to Pasadena on business thinking I should stay close to my client site. Bad call. This hotel is old, overpriced and disgusting. Certainly not worth anything more than $30 per night. Bed was uncomfortable, room stunk and furniture was dated. Stay in Houston and make the drive.</t>
+  </si>
+  <si>
+    <t>February 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r94539951-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>94539951</t>
+  </si>
+  <si>
+    <t>01/26/2011</t>
+  </si>
+  <si>
+    <t>Speechless</t>
+  </si>
+  <si>
+    <t>After reading these reviews I started thinking we must be talking about different hotels...but we aren't so I doubt the validity of the previous reviews.  I travel 50% of the time and stay in H.I.Express most of the time and this is by far the worst hotel I've ever been in....period.  The room smelled musty, the t.v. was from 1993, the desk had a broken leg and no chair (I couldn't make this up if I tried), there was a huge open space in the corner where a chair once was but now probably sits in a former guest's single-wide trailer....the bathroom, oh boy the bathroom, the tub was chipped and stained and lined with mildew, the grout on the tile floor was stained black...as for the beds they looked like someone took about a thousand rags, bundled them together, and covered them with old sheets.  I can't tell you how they actually felt because I legitimately feared bed bugs.  Oh yeah and there was a band preparing to rehearse or perform in the meeting room which was about 20 feet from my room.  If anyone doubts my claims of this terrible establishment ask for room 101 when you check in....MoreShow less</t>
+  </si>
+  <si>
+    <t>After reading these reviews I started thinking we must be talking about different hotels...but we aren't so I doubt the validity of the previous reviews.  I travel 50% of the time and stay in H.I.Express most of the time and this is by far the worst hotel I've ever been in....period.  The room smelled musty, the t.v. was from 1993, the desk had a broken leg and no chair (I couldn't make this up if I tried), there was a huge open space in the corner where a chair once was but now probably sits in a former guest's single-wide trailer....the bathroom, oh boy the bathroom, the tub was chipped and stained and lined with mildew, the grout on the tile floor was stained black...as for the beds they looked like someone took about a thousand rags, bundled them together, and covered them with old sheets.  I can't tell you how they actually felt because I legitimately feared bed bugs.  Oh yeah and there was a band preparing to rehearse or perform in the meeting room which was about 20 feet from my room.  If anyone doubts my claims of this terrible establishment ask for room 101 when you check in....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r17171011-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>17171011</t>
+  </si>
+  <si>
+    <t>06/23/2008</t>
+  </si>
+  <si>
+    <t>Loved the stay!</t>
+  </si>
+  <si>
+    <t>I cannot tell you how much it was a pleasure to stay at this hotel. We had left another property down the street for this hotel and it was a breath of fresh air -- literally! When you enter the hotel, you are already greeted with a smile. The entire place is so clean too. The room are nice with the staff always willing to lend a helping hand. The breakfast was delicious. The lady in charge of replenishing the area did an excellent job! Overall- I would of loved to stay longer, but was on my way to San Diego the next day. I was impressed and I hope you will be too!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2008</t>
+  </si>
+  <si>
+    <t>I cannot tell you how much it was a pleasure to stay at this hotel. We had left another property down the street for this hotel and it was a breath of fresh air -- literally! When you enter the hotel, you are already greeted with a smile. The entire place is so clean too. The room are nice with the staff always willing to lend a helping hand. The breakfast was delicious. The lady in charge of replenishing the area did an excellent job! Overall- I would of loved to stay longer, but was on my way to San Diego the next day. I was impressed and I hope you will be too!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d223648-r7841155-Days_Inn_Suites_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>7841155</t>
+  </si>
+  <si>
+    <t>06/11/2007</t>
+  </si>
+  <si>
+    <t>holiday inn express</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>June 2007</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1930,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1962,5869 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s"/>
+      <c r="L2" t="s"/>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3</v>
+      </c>
+      <c r="R2" t="n">
+        <v>3</v>
+      </c>
+      <c r="S2" t="n">
+        <v>2</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>2</v>
+      </c>
+      <c r="R3" t="n">
+        <v>3</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L4" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>63</v>
+      </c>
+      <c r="O4" t="s">
+        <v>64</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" t="s"/>
+      <c r="L5" t="s"/>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>68</v>
+      </c>
+      <c r="O5" t="s">
+        <v>69</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" t="s">
+        <v>72</v>
+      </c>
+      <c r="K6" t="s">
+        <v>73</v>
+      </c>
+      <c r="L6" t="s">
+        <v>74</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>68</v>
+      </c>
+      <c r="O6" t="s">
+        <v>75</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K7" t="s"/>
+      <c r="L7" t="s"/>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>80</v>
+      </c>
+      <c r="O7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" t="s">
+        <v>83</v>
+      </c>
+      <c r="K8" t="s">
+        <v>84</v>
+      </c>
+      <c r="L8" t="s">
+        <v>85</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>86</v>
+      </c>
+      <c r="O8" t="s">
+        <v>64</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>88</v>
+      </c>
+      <c r="J9" t="s">
+        <v>89</v>
+      </c>
+      <c r="K9" t="s">
+        <v>90</v>
+      </c>
+      <c r="L9" t="s">
+        <v>91</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>86</v>
+      </c>
+      <c r="O9" t="s">
+        <v>69</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>92</v>
+      </c>
+      <c r="X9" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>96</v>
+      </c>
+      <c r="J10" t="s">
+        <v>97</v>
+      </c>
+      <c r="K10" t="s">
+        <v>98</v>
+      </c>
+      <c r="L10" t="s">
+        <v>99</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>86</v>
+      </c>
+      <c r="O10" t="s">
+        <v>75</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>102</v>
+      </c>
+      <c r="J11" t="s">
+        <v>103</v>
+      </c>
+      <c r="K11" t="s">
+        <v>104</v>
+      </c>
+      <c r="L11" t="s">
+        <v>105</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>106</v>
+      </c>
+      <c r="O11" t="s">
+        <v>51</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>108</v>
+      </c>
+      <c r="J12" t="s">
+        <v>109</v>
+      </c>
+      <c r="K12" t="s">
+        <v>110</v>
+      </c>
+      <c r="L12" t="s">
+        <v>111</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>106</v>
+      </c>
+      <c r="O12" t="s">
+        <v>69</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>112</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>113</v>
+      </c>
+      <c r="J13" t="s">
+        <v>114</v>
+      </c>
+      <c r="K13" t="s">
+        <v>115</v>
+      </c>
+      <c r="L13" t="s">
+        <v>116</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>117</v>
+      </c>
+      <c r="O13" t="s">
+        <v>51</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>118</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>119</v>
+      </c>
+      <c r="J14" t="s">
+        <v>120</v>
+      </c>
+      <c r="K14" t="s"/>
+      <c r="L14" t="s">
+        <v>121</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>122</v>
+      </c>
+      <c r="O14" t="s">
+        <v>69</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>124</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>125</v>
+      </c>
+      <c r="J15" t="s">
+        <v>126</v>
+      </c>
+      <c r="K15" t="s">
+        <v>127</v>
+      </c>
+      <c r="L15" t="s">
+        <v>128</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>122</v>
+      </c>
+      <c r="O15" t="s">
+        <v>51</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>129</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>130</v>
+      </c>
+      <c r="J16" t="s">
+        <v>131</v>
+      </c>
+      <c r="K16" t="s"/>
+      <c r="L16" t="s"/>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>132</v>
+      </c>
+      <c r="O16" t="s">
+        <v>69</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>1</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>133</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>134</v>
+      </c>
+      <c r="J17" t="s">
+        <v>135</v>
+      </c>
+      <c r="K17" t="s"/>
+      <c r="L17" t="s"/>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>132</v>
+      </c>
+      <c r="O17" t="s">
+        <v>51</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>136</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>137</v>
+      </c>
+      <c r="J18" t="s">
+        <v>138</v>
+      </c>
+      <c r="K18" t="s"/>
+      <c r="L18" t="s"/>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>139</v>
+      </c>
+      <c r="O18" t="s">
+        <v>75</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>140</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>141</v>
+      </c>
+      <c r="J19" t="s">
+        <v>142</v>
+      </c>
+      <c r="K19" t="s"/>
+      <c r="L19" t="s"/>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>139</v>
+      </c>
+      <c r="O19" t="s">
+        <v>51</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>143</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>144</v>
+      </c>
+      <c r="J20" t="s">
+        <v>145</v>
+      </c>
+      <c r="K20" t="s"/>
+      <c r="L20" t="s"/>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>146</v>
+      </c>
+      <c r="O20" t="s">
+        <v>51</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>147</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>148</v>
+      </c>
+      <c r="J21" t="s">
+        <v>149</v>
+      </c>
+      <c r="K21" t="s">
+        <v>150</v>
+      </c>
+      <c r="L21" t="s">
+        <v>151</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>152</v>
+      </c>
+      <c r="O21" t="s">
+        <v>153</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>4</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>154</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>155</v>
+      </c>
+      <c r="J22" t="s">
+        <v>156</v>
+      </c>
+      <c r="K22" t="s">
+        <v>157</v>
+      </c>
+      <c r="L22" t="s">
+        <v>158</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s"/>
+      <c r="O22" t="s"/>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>160</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>161</v>
+      </c>
+      <c r="J23" t="s">
+        <v>162</v>
+      </c>
+      <c r="K23" t="s"/>
+      <c r="L23" t="s"/>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>163</v>
+      </c>
+      <c r="O23" t="s">
+        <v>51</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>164</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>165</v>
+      </c>
+      <c r="J24" t="s">
+        <v>166</v>
+      </c>
+      <c r="K24" t="s"/>
+      <c r="L24" t="s"/>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>163</v>
+      </c>
+      <c r="O24" t="s">
+        <v>69</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>167</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>168</v>
+      </c>
+      <c r="J25" t="s">
+        <v>169</v>
+      </c>
+      <c r="K25" t="s">
+        <v>170</v>
+      </c>
+      <c r="L25" t="s">
+        <v>171</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>163</v>
+      </c>
+      <c r="O25" t="s">
+        <v>51</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2</v>
+      </c>
+      <c r="R25" t="n">
+        <v>2</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>1</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>172</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>173</v>
+      </c>
+      <c r="J26" t="s">
+        <v>174</v>
+      </c>
+      <c r="K26" t="s">
+        <v>175</v>
+      </c>
+      <c r="L26" t="s">
+        <v>176</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>177</v>
+      </c>
+      <c r="O26" t="s">
+        <v>51</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>178</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>179</v>
+      </c>
+      <c r="J27" t="s">
+        <v>180</v>
+      </c>
+      <c r="K27" t="s">
+        <v>181</v>
+      </c>
+      <c r="L27" t="s">
+        <v>182</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>183</v>
+      </c>
+      <c r="O27" t="s">
+        <v>69</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>184</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>185</v>
+      </c>
+      <c r="J28" t="s">
+        <v>186</v>
+      </c>
+      <c r="K28" t="s">
+        <v>187</v>
+      </c>
+      <c r="L28" t="s">
+        <v>188</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>177</v>
+      </c>
+      <c r="O28" t="s">
+        <v>69</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>189</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>190</v>
+      </c>
+      <c r="J29" t="s">
+        <v>191</v>
+      </c>
+      <c r="K29" t="s">
+        <v>192</v>
+      </c>
+      <c r="L29" t="s">
+        <v>193</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>183</v>
+      </c>
+      <c r="O29" t="s">
+        <v>69</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>194</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>195</v>
+      </c>
+      <c r="J30" t="s">
+        <v>196</v>
+      </c>
+      <c r="K30" t="s"/>
+      <c r="L30" t="s"/>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>197</v>
+      </c>
+      <c r="O30" t="s">
+        <v>51</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>198</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>199</v>
+      </c>
+      <c r="J31" t="s">
+        <v>200</v>
+      </c>
+      <c r="K31" t="s">
+        <v>201</v>
+      </c>
+      <c r="L31" t="s">
+        <v>202</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>197</v>
+      </c>
+      <c r="O31" t="s">
+        <v>69</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>203</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>204</v>
+      </c>
+      <c r="J32" t="s">
+        <v>205</v>
+      </c>
+      <c r="K32" t="s"/>
+      <c r="L32" t="s">
+        <v>121</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>206</v>
+      </c>
+      <c r="O32" t="s">
+        <v>69</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>2</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>207</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>208</v>
+      </c>
+      <c r="J33" t="s">
+        <v>209</v>
+      </c>
+      <c r="K33" t="s"/>
+      <c r="L33" t="s"/>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>210</v>
+      </c>
+      <c r="O33" t="s">
+        <v>64</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>1</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>211</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>212</v>
+      </c>
+      <c r="J34" t="s">
+        <v>213</v>
+      </c>
+      <c r="K34" t="s">
+        <v>214</v>
+      </c>
+      <c r="L34" t="s">
+        <v>215</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>210</v>
+      </c>
+      <c r="O34" t="s">
+        <v>69</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>216</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>217</v>
+      </c>
+      <c r="J35" t="s">
+        <v>218</v>
+      </c>
+      <c r="K35" t="s"/>
+      <c r="L35" t="s"/>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>219</v>
+      </c>
+      <c r="O35" t="s">
+        <v>51</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>220</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>221</v>
+      </c>
+      <c r="J36" t="s">
+        <v>222</v>
+      </c>
+      <c r="K36" t="s">
+        <v>223</v>
+      </c>
+      <c r="L36" t="s">
+        <v>224</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>219</v>
+      </c>
+      <c r="O36" t="s">
+        <v>51</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>225</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>226</v>
+      </c>
+      <c r="J37" t="s">
+        <v>227</v>
+      </c>
+      <c r="K37" t="s"/>
+      <c r="L37" t="s"/>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>219</v>
+      </c>
+      <c r="O37" t="s">
+        <v>153</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>3</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>228</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>229</v>
+      </c>
+      <c r="J38" t="s">
+        <v>230</v>
+      </c>
+      <c r="K38" t="s"/>
+      <c r="L38" t="s">
+        <v>121</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
+        <v>231</v>
+      </c>
+      <c r="O38" t="s">
+        <v>64</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>1</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>232</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>233</v>
+      </c>
+      <c r="J39" t="s">
+        <v>234</v>
+      </c>
+      <c r="K39" t="s">
+        <v>235</v>
+      </c>
+      <c r="L39" t="s">
+        <v>236</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>231</v>
+      </c>
+      <c r="O39" t="s">
+        <v>51</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>237</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>238</v>
+      </c>
+      <c r="J40" t="s">
+        <v>239</v>
+      </c>
+      <c r="K40" t="s"/>
+      <c r="L40" t="s"/>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>240</v>
+      </c>
+      <c r="O40" t="s">
+        <v>64</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>241</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>242</v>
+      </c>
+      <c r="J41" t="s">
+        <v>243</v>
+      </c>
+      <c r="K41" t="s">
+        <v>244</v>
+      </c>
+      <c r="L41" t="s">
+        <v>245</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>246</v>
+      </c>
+      <c r="O41" t="s">
+        <v>69</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="n">
+        <v>3</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>1</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>247</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>248</v>
+      </c>
+      <c r="J42" t="s">
+        <v>249</v>
+      </c>
+      <c r="K42" t="s">
+        <v>250</v>
+      </c>
+      <c r="L42" t="s">
+        <v>251</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>246</v>
+      </c>
+      <c r="O42" t="s">
+        <v>153</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>252</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>253</v>
+      </c>
+      <c r="J43" t="s">
+        <v>254</v>
+      </c>
+      <c r="K43" t="s">
+        <v>255</v>
+      </c>
+      <c r="L43" t="s">
+        <v>256</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s">
+        <v>246</v>
+      </c>
+      <c r="O43" t="s">
+        <v>69</v>
+      </c>
+      <c r="P43" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>3</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>3</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>257</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>258</v>
+      </c>
+      <c r="J44" t="s">
+        <v>259</v>
+      </c>
+      <c r="K44" t="s">
+        <v>260</v>
+      </c>
+      <c r="L44" t="s">
+        <v>261</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>262</v>
+      </c>
+      <c r="O44" t="s">
+        <v>51</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>263</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>264</v>
+      </c>
+      <c r="J45" t="s">
+        <v>265</v>
+      </c>
+      <c r="K45" t="s">
+        <v>266</v>
+      </c>
+      <c r="L45" t="s">
+        <v>267</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>262</v>
+      </c>
+      <c r="O45" t="s">
+        <v>51</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>269</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>270</v>
+      </c>
+      <c r="J46" t="s">
+        <v>271</v>
+      </c>
+      <c r="K46" t="s">
+        <v>272</v>
+      </c>
+      <c r="L46" t="s">
+        <v>273</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s">
+        <v>262</v>
+      </c>
+      <c r="O46" t="s">
+        <v>75</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>3</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>2</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>275</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>276</v>
+      </c>
+      <c r="J47" t="s">
+        <v>277</v>
+      </c>
+      <c r="K47" t="s">
+        <v>278</v>
+      </c>
+      <c r="L47" t="s">
+        <v>279</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="s">
+        <v>280</v>
+      </c>
+      <c r="O47" t="s">
+        <v>153</v>
+      </c>
+      <c r="P47" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>3</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>3</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>3</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>282</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>283</v>
+      </c>
+      <c r="J48" t="s">
+        <v>284</v>
+      </c>
+      <c r="K48" t="s">
+        <v>12</v>
+      </c>
+      <c r="L48" t="s">
+        <v>285</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>280</v>
+      </c>
+      <c r="O48" t="s">
+        <v>69</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>286</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>287</v>
+      </c>
+      <c r="J49" t="s">
+        <v>288</v>
+      </c>
+      <c r="K49" t="s">
+        <v>289</v>
+      </c>
+      <c r="L49" t="s">
+        <v>290</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>280</v>
+      </c>
+      <c r="O49" t="s">
+        <v>69</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>3</v>
+      </c>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>291</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>292</v>
+      </c>
+      <c r="J50" t="s">
+        <v>293</v>
+      </c>
+      <c r="K50" t="s"/>
+      <c r="L50" t="s"/>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>294</v>
+      </c>
+      <c r="O50" t="s">
+        <v>64</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>295</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>296</v>
+      </c>
+      <c r="J51" t="s">
+        <v>297</v>
+      </c>
+      <c r="K51" t="s">
+        <v>298</v>
+      </c>
+      <c r="L51" t="s">
+        <v>299</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>300</v>
+      </c>
+      <c r="O51" t="s">
+        <v>64</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>301</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>302</v>
+      </c>
+      <c r="J52" t="s">
+        <v>303</v>
+      </c>
+      <c r="K52" t="s">
+        <v>304</v>
+      </c>
+      <c r="L52" t="s">
+        <v>305</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s">
+        <v>300</v>
+      </c>
+      <c r="O52" t="s">
+        <v>64</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>307</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>308</v>
+      </c>
+      <c r="J53" t="s">
+        <v>309</v>
+      </c>
+      <c r="K53" t="s">
+        <v>310</v>
+      </c>
+      <c r="L53" t="s">
+        <v>311</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>312</v>
+      </c>
+      <c r="O53" t="s">
+        <v>64</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="n">
+        <v>3</v>
+      </c>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>313</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>314</v>
+      </c>
+      <c r="J54" t="s">
+        <v>315</v>
+      </c>
+      <c r="K54" t="s">
+        <v>316</v>
+      </c>
+      <c r="L54" t="s">
+        <v>317</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="s">
+        <v>312</v>
+      </c>
+      <c r="O54" t="s">
+        <v>153</v>
+      </c>
+      <c r="P54" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>2</v>
+      </c>
+      <c r="R54" t="n">
+        <v>2</v>
+      </c>
+      <c r="S54" t="n">
+        <v>2</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>3</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>318</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>319</v>
+      </c>
+      <c r="J55" t="s">
+        <v>320</v>
+      </c>
+      <c r="K55" t="s">
+        <v>321</v>
+      </c>
+      <c r="L55" t="s">
+        <v>322</v>
+      </c>
+      <c r="M55" t="n">
+        <v>2</v>
+      </c>
+      <c r="N55" t="s">
+        <v>312</v>
+      </c>
+      <c r="O55" t="s">
+        <v>51</v>
+      </c>
+      <c r="P55" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>2</v>
+      </c>
+      <c r="R55" t="n">
+        <v>3</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>2</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>323</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>324</v>
+      </c>
+      <c r="J56" t="s">
+        <v>325</v>
+      </c>
+      <c r="K56" t="s"/>
+      <c r="L56" t="s"/>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>312</v>
+      </c>
+      <c r="O56" t="s">
+        <v>51</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>326</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>327</v>
+      </c>
+      <c r="J57" t="s">
+        <v>328</v>
+      </c>
+      <c r="K57" t="s">
+        <v>329</v>
+      </c>
+      <c r="L57" t="s">
+        <v>330</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>331</v>
+      </c>
+      <c r="O57" t="s">
+        <v>69</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>332</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>333</v>
+      </c>
+      <c r="J58" t="s">
+        <v>334</v>
+      </c>
+      <c r="K58" t="s">
+        <v>335</v>
+      </c>
+      <c r="L58" t="s">
+        <v>336</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>331</v>
+      </c>
+      <c r="O58" t="s">
+        <v>153</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>337</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>338</v>
+      </c>
+      <c r="J59" t="s">
+        <v>339</v>
+      </c>
+      <c r="K59" t="s"/>
+      <c r="L59" t="s"/>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>340</v>
+      </c>
+      <c r="O59" t="s">
+        <v>64</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>341</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>342</v>
+      </c>
+      <c r="J60" t="s">
+        <v>343</v>
+      </c>
+      <c r="K60" t="s">
+        <v>344</v>
+      </c>
+      <c r="L60" t="s">
+        <v>345</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>340</v>
+      </c>
+      <c r="O60" t="s">
+        <v>69</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="s"/>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>346</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>347</v>
+      </c>
+      <c r="J61" t="s">
+        <v>348</v>
+      </c>
+      <c r="K61" t="s">
+        <v>349</v>
+      </c>
+      <c r="L61" t="s">
+        <v>350</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s">
+        <v>351</v>
+      </c>
+      <c r="O61" t="s">
+        <v>51</v>
+      </c>
+      <c r="P61" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>3</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>1</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>3</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>353</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>354</v>
+      </c>
+      <c r="J62" t="s">
+        <v>355</v>
+      </c>
+      <c r="K62" t="s"/>
+      <c r="L62" t="s">
+        <v>121</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3</v>
+      </c>
+      <c r="N62" t="s">
+        <v>356</v>
+      </c>
+      <c r="O62" t="s">
+        <v>51</v>
+      </c>
+      <c r="P62" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>3</v>
+      </c>
+      <c r="R62" t="n">
+        <v>3</v>
+      </c>
+      <c r="S62" t="n">
+        <v>3</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>3</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>357</v>
+      </c>
+      <c r="X62" t="s">
+        <v>358</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>359</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>360</v>
+      </c>
+      <c r="J63" t="s">
+        <v>361</v>
+      </c>
+      <c r="K63" t="s">
+        <v>362</v>
+      </c>
+      <c r="L63" t="s">
+        <v>363</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s"/>
+      <c r="O63" t="s"/>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>364</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>365</v>
+      </c>
+      <c r="J64" t="s">
+        <v>366</v>
+      </c>
+      <c r="K64" t="s">
+        <v>367</v>
+      </c>
+      <c r="L64" t="s">
+        <v>368</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>369</v>
+      </c>
+      <c r="O64" t="s">
+        <v>51</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>370</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>371</v>
+      </c>
+      <c r="J65" t="s">
+        <v>372</v>
+      </c>
+      <c r="K65" t="s"/>
+      <c r="L65" t="s"/>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>369</v>
+      </c>
+      <c r="O65" t="s">
+        <v>64</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>3</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>373</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>374</v>
+      </c>
+      <c r="J66" t="s">
+        <v>375</v>
+      </c>
+      <c r="K66" t="s">
+        <v>376</v>
+      </c>
+      <c r="L66" t="s">
+        <v>377</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+      <c r="N66" t="s">
+        <v>369</v>
+      </c>
+      <c r="O66" t="s">
+        <v>51</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="n">
+        <v>1</v>
+      </c>
+      <c r="R66" t="s"/>
+      <c r="S66" t="n">
+        <v>1</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>3</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>357</v>
+      </c>
+      <c r="X66" t="s">
+        <v>358</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>379</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>380</v>
+      </c>
+      <c r="J67" t="s">
+        <v>381</v>
+      </c>
+      <c r="K67" t="s">
+        <v>382</v>
+      </c>
+      <c r="L67" t="s">
+        <v>383</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" t="s">
+        <v>369</v>
+      </c>
+      <c r="O67" t="s">
+        <v>153</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="s"/>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>384</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>385</v>
+      </c>
+      <c r="J68" t="s">
+        <v>386</v>
+      </c>
+      <c r="K68" t="s"/>
+      <c r="L68" t="s"/>
+      <c r="M68" t="n">
+        <v>2</v>
+      </c>
+      <c r="N68" t="s">
+        <v>387</v>
+      </c>
+      <c r="O68" t="s">
+        <v>64</v>
+      </c>
+      <c r="P68" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>2</v>
+      </c>
+      <c r="R68" t="n">
+        <v>3</v>
+      </c>
+      <c r="S68" t="n">
+        <v>1</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>3</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>388</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>389</v>
+      </c>
+      <c r="J69" t="s">
+        <v>390</v>
+      </c>
+      <c r="K69" t="s"/>
+      <c r="L69" t="s"/>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>391</v>
+      </c>
+      <c r="O69" t="s">
+        <v>51</v>
+      </c>
+      <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>4</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>392</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>393</v>
+      </c>
+      <c r="J70" t="s">
+        <v>394</v>
+      </c>
+      <c r="K70" t="s">
+        <v>395</v>
+      </c>
+      <c r="L70" t="s">
+        <v>396</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>391</v>
+      </c>
+      <c r="O70" t="s">
+        <v>51</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>4</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>4</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>397</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>398</v>
+      </c>
+      <c r="J71" t="s">
+        <v>399</v>
+      </c>
+      <c r="K71" t="s"/>
+      <c r="L71" t="s"/>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="s">
+        <v>400</v>
+      </c>
+      <c r="O71" t="s">
+        <v>69</v>
+      </c>
+      <c r="P71" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>1</v>
+      </c>
+      <c r="R71" t="n">
+        <v>3</v>
+      </c>
+      <c r="S71" t="n">
+        <v>2</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>2</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>401</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>402</v>
+      </c>
+      <c r="J72" t="s">
+        <v>403</v>
+      </c>
+      <c r="K72" t="s"/>
+      <c r="L72" t="s"/>
+      <c r="M72" t="n">
+        <v>3</v>
+      </c>
+      <c r="N72" t="s">
+        <v>400</v>
+      </c>
+      <c r="O72" t="s">
+        <v>51</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>2</v>
+      </c>
+      <c r="R72" t="s"/>
+      <c r="S72" t="n">
+        <v>3</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="s"/>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>404</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>405</v>
+      </c>
+      <c r="J73" t="s">
+        <v>406</v>
+      </c>
+      <c r="K73" t="s">
+        <v>407</v>
+      </c>
+      <c r="L73" t="s">
+        <v>408</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>409</v>
+      </c>
+      <c r="O73" t="s">
+        <v>51</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>4</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>4</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>410</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>411</v>
+      </c>
+      <c r="J74" t="s">
+        <v>412</v>
+      </c>
+      <c r="K74" t="s"/>
+      <c r="L74" t="s"/>
+      <c r="M74" t="n">
+        <v>3</v>
+      </c>
+      <c r="N74" t="s">
+        <v>413</v>
+      </c>
+      <c r="O74" t="s">
+        <v>69</v>
+      </c>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="s"/>
+      <c r="S74" t="s"/>
+      <c r="T74" t="s"/>
+      <c r="U74" t="s"/>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>414</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>415</v>
+      </c>
+      <c r="J75" t="s">
+        <v>412</v>
+      </c>
+      <c r="K75" t="s"/>
+      <c r="L75" t="s">
+        <v>121</v>
+      </c>
+      <c r="M75" t="n">
+        <v>3</v>
+      </c>
+      <c r="N75" t="s">
+        <v>413</v>
+      </c>
+      <c r="O75" t="s">
+        <v>51</v>
+      </c>
+      <c r="P75" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="n">
+        <v>3</v>
+      </c>
+      <c r="S75" t="n">
+        <v>3</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>2</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>416</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>417</v>
+      </c>
+      <c r="J76" t="s">
+        <v>418</v>
+      </c>
+      <c r="K76" t="s"/>
+      <c r="L76" t="s"/>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>413</v>
+      </c>
+      <c r="O76" t="s">
+        <v>75</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>419</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>420</v>
+      </c>
+      <c r="J77" t="s">
+        <v>421</v>
+      </c>
+      <c r="K77" t="s"/>
+      <c r="L77" t="s"/>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>422</v>
+      </c>
+      <c r="O77" t="s">
+        <v>69</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>423</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>424</v>
+      </c>
+      <c r="J78" t="s">
+        <v>425</v>
+      </c>
+      <c r="K78" t="s">
+        <v>426</v>
+      </c>
+      <c r="L78" t="s">
+        <v>427</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>428</v>
+      </c>
+      <c r="O78" t="s">
+        <v>51</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>4</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>4</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>429</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>430</v>
+      </c>
+      <c r="J79" t="s">
+        <v>431</v>
+      </c>
+      <c r="K79" t="s"/>
+      <c r="L79" t="s"/>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>432</v>
+      </c>
+      <c r="O79" t="s">
+        <v>51</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>433</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>434</v>
+      </c>
+      <c r="J80" t="s">
+        <v>435</v>
+      </c>
+      <c r="K80" t="s"/>
+      <c r="L80" t="s"/>
+      <c r="M80" t="n">
+        <v>3</v>
+      </c>
+      <c r="N80" t="s">
+        <v>436</v>
+      </c>
+      <c r="O80" t="s">
+        <v>75</v>
+      </c>
+      <c r="P80" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>4</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>437</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>438</v>
+      </c>
+      <c r="J81" t="s">
+        <v>439</v>
+      </c>
+      <c r="K81" t="s"/>
+      <c r="L81" t="s"/>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="N81" t="s">
+        <v>436</v>
+      </c>
+      <c r="O81" t="s">
+        <v>51</v>
+      </c>
+      <c r="P81" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>2</v>
+      </c>
+      <c r="R81" t="n">
+        <v>3</v>
+      </c>
+      <c r="S81" t="n">
+        <v>1</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>2</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>440</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>441</v>
+      </c>
+      <c r="J82" t="s">
+        <v>442</v>
+      </c>
+      <c r="K82" t="s"/>
+      <c r="L82" t="s"/>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>436</v>
+      </c>
+      <c r="O82" t="s">
+        <v>153</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>4</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>4</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>443</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>444</v>
+      </c>
+      <c r="J83" t="s">
+        <v>445</v>
+      </c>
+      <c r="K83" t="s">
+        <v>446</v>
+      </c>
+      <c r="L83" t="s">
+        <v>447</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>448</v>
+      </c>
+      <c r="O83" t="s">
+        <v>75</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>449</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>450</v>
+      </c>
+      <c r="J84" t="s">
+        <v>451</v>
+      </c>
+      <c r="K84" t="s">
+        <v>452</v>
+      </c>
+      <c r="L84" t="s">
+        <v>453</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>454</v>
+      </c>
+      <c r="O84" t="s">
+        <v>69</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>4</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>455</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>456</v>
+      </c>
+      <c r="J85" t="s">
+        <v>457</v>
+      </c>
+      <c r="K85" t="s">
+        <v>458</v>
+      </c>
+      <c r="L85" t="s">
+        <v>459</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>454</v>
+      </c>
+      <c r="O85" t="s">
+        <v>69</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>460</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>461</v>
+      </c>
+      <c r="J86" t="s">
+        <v>462</v>
+      </c>
+      <c r="K86" t="s">
+        <v>463</v>
+      </c>
+      <c r="L86" t="s">
+        <v>464</v>
+      </c>
+      <c r="M86" t="n">
+        <v>3</v>
+      </c>
+      <c r="N86" t="s">
+        <v>465</v>
+      </c>
+      <c r="O86" t="s">
+        <v>69</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>3</v>
+      </c>
+      <c r="R86" t="n">
+        <v>3</v>
+      </c>
+      <c r="S86" t="n">
+        <v>3</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>4</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>466</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>467</v>
+      </c>
+      <c r="J87" t="s">
+        <v>468</v>
+      </c>
+      <c r="K87" t="s"/>
+      <c r="L87" t="s">
+        <v>121</v>
+      </c>
+      <c r="M87" t="n">
+        <v>3</v>
+      </c>
+      <c r="N87" t="s">
+        <v>469</v>
+      </c>
+      <c r="O87" t="s">
+        <v>51</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>3</v>
+      </c>
+      <c r="R87" t="n">
+        <v>3</v>
+      </c>
+      <c r="S87" t="n">
+        <v>3</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>470</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>471</v>
+      </c>
+      <c r="J88" t="s">
+        <v>472</v>
+      </c>
+      <c r="K88" t="s">
+        <v>473</v>
+      </c>
+      <c r="L88" t="s">
+        <v>474</v>
+      </c>
+      <c r="M88" t="n">
+        <v>2</v>
+      </c>
+      <c r="N88" t="s">
+        <v>475</v>
+      </c>
+      <c r="O88" t="s">
+        <v>69</v>
+      </c>
+      <c r="P88" t="s"/>
+      <c r="Q88" t="s"/>
+      <c r="R88" t="s"/>
+      <c r="S88" t="s"/>
+      <c r="T88" t="s"/>
+      <c r="U88" t="s"/>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>476</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>477</v>
+      </c>
+      <c r="J89" t="s">
+        <v>478</v>
+      </c>
+      <c r="K89" t="s">
+        <v>479</v>
+      </c>
+      <c r="L89" t="s">
+        <v>480</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>481</v>
+      </c>
+      <c r="O89" t="s">
+        <v>51</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="s"/>
+      <c r="R89" t="s"/>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>482</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>483</v>
+      </c>
+      <c r="J90" t="s">
+        <v>484</v>
+      </c>
+      <c r="K90" t="s">
+        <v>485</v>
+      </c>
+      <c r="L90" t="s">
+        <v>486</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>487</v>
+      </c>
+      <c r="O90" t="s">
+        <v>69</v>
+      </c>
+      <c r="P90" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>1</v>
+      </c>
+      <c r="R90" t="n">
+        <v>1</v>
+      </c>
+      <c r="S90" t="n">
+        <v>2</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>2</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>488</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>489</v>
+      </c>
+      <c r="J91" t="s">
+        <v>490</v>
+      </c>
+      <c r="K91" t="s">
+        <v>491</v>
+      </c>
+      <c r="L91" t="s">
+        <v>492</v>
+      </c>
+      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+      <c r="N91" t="s"/>
+      <c r="O91" t="s"/>
+      <c r="P91" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>1</v>
+      </c>
+      <c r="R91" t="n">
+        <v>3</v>
+      </c>
+      <c r="S91" t="n">
+        <v>1</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>1</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>494</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>495</v>
+      </c>
+      <c r="J92" t="s">
+        <v>496</v>
+      </c>
+      <c r="K92" t="s">
+        <v>497</v>
+      </c>
+      <c r="L92" t="s">
+        <v>498</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>499</v>
+      </c>
+      <c r="O92" t="s">
+        <v>51</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>3</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>39009</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>501</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>502</v>
+      </c>
+      <c r="J93" t="s">
+        <v>503</v>
+      </c>
+      <c r="K93" t="s">
+        <v>504</v>
+      </c>
+      <c r="L93" t="s">
+        <v>505</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>506</v>
+      </c>
+      <c r="O93" t="s">
+        <v>69</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>505</v>
       </c>
     </row>
   </sheetData>
